--- a/py_data/py_excel/test.xlsx
+++ b/py_data/py_excel/test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +35,18 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
   </si>
 </sst>
 </file>
@@ -353,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +407,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/py_data/py_excel/test.xlsx
+++ b/py_data/py_excel/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,33 @@
   </si>
   <si>
     <t>num3</t>
+  </si>
+  <si>
+    <t>SeqID</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>DERType</t>
+  </si>
+  <si>
+    <t>Location1</t>
+  </si>
+  <si>
+    <t>Plant1</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
   </si>
 </sst>
 </file>
@@ -62,15 +89,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,12 +111,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,44 +463,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:F7"/>
+  <dimension ref="E4:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7">
         <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
